--- a/Code/Results/Cases/Case_1_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.298622310635949</v>
+        <v>1.532262534272604</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.155118689528237</v>
+        <v>0.2504141269181517</v>
       </c>
       <c r="E2">
-        <v>0.3437521472411404</v>
+        <v>0.3166662929811181</v>
       </c>
       <c r="F2">
-        <v>0.5115086872896129</v>
+        <v>1.396569297610434</v>
       </c>
       <c r="G2">
-        <v>0.0007910943052872321</v>
+        <v>0.002455192029909734</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6358710767071472</v>
+        <v>0.4623035817220682</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.386270679867636</v>
+        <v>0.5388787369807062</v>
       </c>
       <c r="M2">
-        <v>0.8701172120124028</v>
+        <v>0.4418470755331612</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.667490565842684</v>
+        <v>3.367291297544455</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.013692291633163</v>
+        <v>1.446322473854764</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1503153832207929</v>
+        <v>0.2497068241671556</v>
       </c>
       <c r="E3">
-        <v>0.319815587936688</v>
+        <v>0.3097559937271157</v>
       </c>
       <c r="F3">
-        <v>0.5111480372797388</v>
+        <v>1.415502031845392</v>
       </c>
       <c r="G3">
-        <v>0.0007962095259865711</v>
+        <v>0.002458610405048538</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5831940671989884</v>
+        <v>0.4461774775234346</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.20563263725731</v>
+        <v>0.4800428348249568</v>
       </c>
       <c r="M3">
-        <v>0.7578493360897625</v>
+        <v>0.4063941292999118</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.588970285041341</v>
+        <v>3.393874959413012</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.83949841977315</v>
+        <v>1.393697605099419</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1474449083828375</v>
+        <v>0.2493303591073328</v>
       </c>
       <c r="E4">
-        <v>0.305268467183339</v>
+        <v>0.305585813266795</v>
       </c>
       <c r="F4">
-        <v>0.5130673669653163</v>
+        <v>1.428229946002254</v>
       </c>
       <c r="G4">
-        <v>0.0007994500497396303</v>
+        <v>0.002460821781583182</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5511137836254392</v>
+        <v>0.4363728616422691</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.09490623284654</v>
+        <v>0.4437922635034113</v>
       </c>
       <c r="M4">
-        <v>0.6891000810488705</v>
+        <v>0.3845983191157671</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.546766553971878</v>
+        <v>3.413019331086389</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768667210313964</v>
+        <v>1.372289654584421</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1462945564874047</v>
+        <v>0.2491915867993697</v>
       </c>
       <c r="E5">
-        <v>0.2993757247878435</v>
+        <v>0.3039049796312696</v>
       </c>
       <c r="F5">
-        <v>0.5143597214021156</v>
+        <v>1.433693633013419</v>
       </c>
       <c r="G5">
-        <v>0.0008007962796996777</v>
+        <v>0.002461751306563035</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5381014575069685</v>
+        <v>0.4324022274982724</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.049812371166496</v>
+        <v>0.4289893019062561</v>
       </c>
       <c r="M5">
-        <v>0.6611176214374268</v>
+        <v>0.3757099245626421</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.530985322171205</v>
+        <v>3.421528929062077</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.75691406599924</v>
+        <v>1.368737158894618</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1461047011570358</v>
+        <v>0.2491694309709658</v>
       </c>
       <c r="E6">
-        <v>0.2983993069841375</v>
+        <v>0.3036270062030297</v>
       </c>
       <c r="F6">
-        <v>0.514604339272978</v>
+        <v>1.434617588935566</v>
       </c>
       <c r="G6">
-        <v>0.0008010213888729104</v>
+        <v>0.002461907369717932</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5359442780277419</v>
+        <v>0.4317444200309666</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.042325743413386</v>
+        <v>0.4265294623912723</v>
       </c>
       <c r="M6">
-        <v>0.6564728184169155</v>
+        <v>0.3742336404217426</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.528447815775195</v>
+        <v>3.422984666136671</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.838542586018463</v>
+        <v>1.39340873808564</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1474293163461198</v>
+        <v>0.2493284281629755</v>
       </c>
       <c r="E7">
-        <v>0.3051888555763824</v>
+        <v>0.3055630695193372</v>
       </c>
       <c r="F7">
-        <v>0.5130827662785791</v>
+        <v>1.428302510383581</v>
       </c>
       <c r="G7">
-        <v>0.0007994681006669966</v>
+        <v>0.002460834202444519</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5509380563821367</v>
+        <v>0.4363192111370893</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.094297991425492</v>
+        <v>0.4435927481184763</v>
       </c>
       <c r="M7">
-        <v>0.6887225806948933</v>
+        <v>0.3844784724566708</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.546548104684376</v>
+        <v>3.413131229361653</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.200199674154362</v>
+        <v>1.502601494906457</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1534458919249317</v>
+        <v>0.2501583074824367</v>
       </c>
       <c r="E8">
-        <v>0.3354661687260077</v>
+        <v>0.3142686642769803</v>
       </c>
       <c r="F8">
-        <v>0.5109226069760666</v>
+        <v>1.402868087715156</v>
       </c>
       <c r="G8">
-        <v>0.0007928377037893356</v>
+        <v>0.002456347392940507</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6176497725138148</v>
+        <v>0.4567234655260251</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.323936272207789</v>
+        <v>0.5186185944734518</v>
       </c>
       <c r="M8">
-        <v>0.8313611175989664</v>
+        <v>0.4296289082746014</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.639111714117945</v>
+        <v>3.375870768113742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.917156622163475</v>
+        <v>1.717818006750178</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.16589149640253</v>
+        <v>0.252240326692494</v>
       </c>
       <c r="E9">
-        <v>0.3961525027157009</v>
+        <v>0.3319079147637751</v>
       </c>
       <c r="F9">
-        <v>0.5250242710293733</v>
+        <v>1.361763694608598</v>
       </c>
       <c r="G9">
-        <v>0.0007805977883795939</v>
+        <v>0.002448437265073018</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7508489825962386</v>
+        <v>0.4974869114472398</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.776675839095077</v>
+        <v>0.6647199163314497</v>
       </c>
       <c r="M9">
-        <v>1.113170307758693</v>
+        <v>0.5179326913216045</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.872821171870129</v>
+        <v>3.325262445694193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.451336151958174</v>
+        <v>1.876562890643584</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.175465472119626</v>
+        <v>0.2540419213365368</v>
       </c>
       <c r="E10">
-        <v>0.4417307633294811</v>
+        <v>0.3452020509945726</v>
       </c>
       <c r="F10">
-        <v>0.5485832461764772</v>
+        <v>1.336939125632384</v>
       </c>
       <c r="G10">
-        <v>0.0007720259902204707</v>
+        <v>0.002443161748828554</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8506070591846253</v>
+        <v>0.5278731767575948</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.112242262153103</v>
+        <v>0.771405117264095</v>
       </c>
       <c r="M10">
-        <v>1.322477410796537</v>
+        <v>0.5826491320586058</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.083126258569933</v>
+        <v>3.301870832204855</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.696626943380636</v>
+        <v>1.9489089988827</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1799234928266173</v>
+        <v>0.2549194947447404</v>
       </c>
       <c r="E11">
-        <v>0.4627288263744589</v>
+        <v>0.3513202883429045</v>
       </c>
       <c r="F11">
-        <v>0.5626574646432303</v>
+        <v>1.326818668159667</v>
       </c>
       <c r="G11">
-        <v>0.0007682072811513593</v>
+        <v>0.00244087698737773</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8965129071918341</v>
+        <v>0.5417876955578436</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.265900945786058</v>
+        <v>0.8197910338838312</v>
       </c>
       <c r="M11">
-        <v>1.418430560298049</v>
+        <v>0.6120526015048853</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.188833853707905</v>
+        <v>3.294245188324112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.789901434608623</v>
+        <v>1.976322699006687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1816272492742996</v>
+        <v>0.2552600587349474</v>
       </c>
       <c r="E12">
-        <v>0.4707225931440107</v>
+        <v>0.3536470524305813</v>
       </c>
       <c r="F12">
-        <v>0.5685147591893838</v>
+        <v>1.323155381142712</v>
       </c>
       <c r="G12">
-        <v>0.00076677188376608</v>
+        <v>0.00244002826826281</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9139819225960082</v>
+        <v>0.5470695522045901</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.324265221131128</v>
+        <v>0.838091885600079</v>
       </c>
       <c r="M12">
-        <v>1.454893608501294</v>
+        <v>0.6231813263430013</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.230457815391929</v>
+        <v>3.29179283520071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.769794843973216</v>
+        <v>1.970417895751837</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1812596068965178</v>
+        <v>0.2551863469771547</v>
       </c>
       <c r="E13">
-        <v>0.4689990409494271</v>
+        <v>0.3531455047451502</v>
       </c>
       <c r="F13">
-        <v>0.567229058307575</v>
+        <v>1.323936805943589</v>
       </c>
       <c r="G13">
-        <v>0.00076708056365047</v>
+        <v>0.002440210323953682</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9102156882415215</v>
+        <v>0.5459314507503166</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.311687010579163</v>
+        <v>0.8341514552863885</v>
       </c>
       <c r="M13">
-        <v>1.447034596629138</v>
+        <v>0.6207848190961158</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.221419866601508</v>
+        <v>3.292301605428207</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.704292555569737</v>
+        <v>1.951163990678083</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1800633441898896</v>
+        <v>0.254947348439913</v>
       </c>
       <c r="E14">
-        <v>0.4633856056729684</v>
+        <v>0.3515115151748702</v>
       </c>
       <c r="F14">
-        <v>0.563128500401973</v>
+        <v>1.32651389509563</v>
       </c>
       <c r="G14">
-        <v>0.0007680889820633758</v>
+        <v>0.002440806833055253</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8979483205077088</v>
+        <v>0.5422219844917038</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.270698866197705</v>
+        <v>0.8212970988096231</v>
       </c>
       <c r="M14">
-        <v>1.421427708201705</v>
+        <v>0.6129682860891279</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.192225405049498</v>
+        <v>3.294034697641365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.664222905532995</v>
+        <v>1.939372700019419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1793326564109066</v>
+        <v>0.2548020259436328</v>
       </c>
       <c r="E15">
-        <v>0.4599528507011144</v>
+        <v>0.3505119342086402</v>
       </c>
       <c r="F15">
-        <v>0.5606869131259486</v>
+        <v>1.328114475393811</v>
       </c>
       <c r="G15">
-        <v>0.0007687080273292802</v>
+        <v>0.002441174354744979</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.890445644457742</v>
+        <v>0.5399514739754352</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.245616509309514</v>
+        <v>0.8134205633357681</v>
       </c>
       <c r="M15">
-        <v>1.405760048481454</v>
+        <v>0.6081796728720974</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.174555364361311</v>
+        <v>3.295153008014921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.435356816703234</v>
+        <v>1.871837458959249</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1751762662157859</v>
+        <v>0.253985729016577</v>
       </c>
       <c r="E16">
-        <v>0.4403641628183266</v>
+        <v>0.3448036110725852</v>
       </c>
       <c r="F16">
-        <v>0.547734769878268</v>
+        <v>1.337624157288488</v>
       </c>
       <c r="G16">
-        <v>0.0007722770966834785</v>
+        <v>0.002443313372602025</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8476184025457485</v>
+        <v>0.5269656359369037</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.102223265286199</v>
+        <v>0.7682399750583215</v>
       </c>
       <c r="M16">
-        <v>1.316223297271748</v>
+        <v>0.5807267713153692</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.076432645941196</v>
+        <v>3.302430008460249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.295581657310777</v>
+        <v>1.830439776238393</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.17265333418446</v>
+        <v>0.2534997479122438</v>
       </c>
       <c r="E17">
-        <v>0.4284177250378747</v>
+        <v>0.3413196663223772</v>
       </c>
       <c r="F17">
-        <v>0.5406796530867837</v>
+        <v>1.343758684353048</v>
       </c>
       <c r="G17">
-        <v>0.0007744866211711802</v>
+        <v>0.002444655012205561</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8214866044397269</v>
+        <v>0.5190223972980732</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.014536218561574</v>
+        <v>0.740485186389094</v>
       </c>
       <c r="M17">
-        <v>1.261499189605161</v>
+        <v>0.563875631444219</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.018912126923766</v>
+        <v>3.307667728543748</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.215398385068056</v>
+        <v>1.806641444833417</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1712118291886071</v>
+        <v>0.2532256911862873</v>
       </c>
       <c r="E18">
-        <v>0.4215710473899463</v>
+        <v>0.3393224592485211</v>
       </c>
       <c r="F18">
-        <v>0.5369348125897275</v>
+        <v>1.347397419091088</v>
       </c>
       <c r="G18">
-        <v>0.0007757651320114001</v>
+        <v>0.002445437526232537</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8065050900122372</v>
+        <v>0.5144623097827008</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.964193713236995</v>
+        <v>0.7245077026308877</v>
       </c>
       <c r="M18">
-        <v>1.230091422206456</v>
+        <v>0.5541799080796466</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.986762924957873</v>
+        <v>3.310964040439103</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.188284356319514</v>
+        <v>1.798585926764588</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1707253888226745</v>
+        <v>0.2531338421838711</v>
       </c>
       <c r="E19">
-        <v>0.419256981632401</v>
+        <v>0.3386473915356731</v>
       </c>
       <c r="F19">
-        <v>0.5357193386416839</v>
+        <v>1.348648363158681</v>
       </c>
       <c r="G19">
-        <v>0.0007761993550592353</v>
+        <v>0.002445704335980377</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8014407020405656</v>
+        <v>0.5129198425419759</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.947163607539068</v>
+        <v>0.7190956819001428</v>
       </c>
       <c r="M19">
-        <v>1.219468362960782</v>
+        <v>0.5508965353790245</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.97603396720686</v>
+        <v>3.312128790870275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.310438641090514</v>
+        <v>1.834845343295399</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1729209034334076</v>
+        <v>0.2535509163491412</v>
       </c>
       <c r="E20">
-        <v>0.4296868684901796</v>
+        <v>0.3416898500664303</v>
       </c>
       <c r="F20">
-        <v>0.541397966995703</v>
+        <v>1.343094232255304</v>
       </c>
       <c r="G20">
-        <v>0.0007742506282062798</v>
+        <v>0.00244451107118287</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8242632590349643</v>
+        <v>0.5198670763146822</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.023860830298702</v>
+        <v>0.743441151650245</v>
       </c>
       <c r="M20">
-        <v>1.267317467453637</v>
+        <v>0.5656698189231264</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.024937454518181</v>
+        <v>3.307080788541811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.723521134120517</v>
+        <v>1.956818855867311</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1804142851275969</v>
+        <v>0.2550173250773042</v>
       </c>
       <c r="E21">
-        <v>0.4650332249243547</v>
+        <v>0.3519911901890751</v>
       </c>
       <c r="F21">
-        <v>0.56431823423803</v>
+        <v>1.325752347742963</v>
       </c>
       <c r="G21">
-        <v>0.0007677925035541967</v>
+        <v>0.002440631177431879</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9015491404439047</v>
+        <v>0.5433112026915694</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.28273300092718</v>
+        <v>0.8250733347733217</v>
       </c>
       <c r="M21">
-        <v>1.42894542578378</v>
+        <v>0.6152643507927706</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.200755970611624</v>
+        <v>3.293513818548405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.995788351611679</v>
+        <v>2.036638794213388</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1854030266663358</v>
+        <v>0.2560237276156698</v>
       </c>
       <c r="E22">
-        <v>0.4883826893780849</v>
+        <v>0.3587814258094824</v>
       </c>
       <c r="F22">
-        <v>0.5823975615421588</v>
+        <v>1.315404372835921</v>
       </c>
       <c r="G22">
-        <v>0.0007636334181135402</v>
+        <v>0.002438191407600666</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9525634035559847</v>
+        <v>0.5587072942765019</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.452970167168928</v>
+        <v>0.8782969565544363</v>
       </c>
       <c r="M22">
-        <v>1.535334255932781</v>
+        <v>0.6476436145211721</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.325039523952825</v>
+        <v>3.287185147475611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.850243443155193</v>
+        <v>1.994028345513129</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1827317833577382</v>
+        <v>0.2554822296181527</v>
       </c>
       <c r="E23">
-        <v>0.475896381343162</v>
+        <v>0.3551521471782735</v>
       </c>
       <c r="F23">
-        <v>0.572448759020503</v>
+        <v>1.320836893901607</v>
       </c>
       <c r="G23">
-        <v>0.0007658478859327045</v>
+        <v>0.002439484804555363</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9252865335918727</v>
+        <v>0.5504834857521814</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.362003953783017</v>
+        <v>0.849902484842147</v>
       </c>
       <c r="M23">
-        <v>1.478475763559388</v>
+        <v>0.6303654324034653</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.257795528051133</v>
+        <v>3.290330074307434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.303721257002962</v>
+        <v>1.832853580884603</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1727999075217355</v>
+        <v>0.2535277664572675</v>
       </c>
       <c r="E24">
-        <v>0.4291130221196866</v>
+        <v>0.3415224720385623</v>
       </c>
       <c r="F24">
-        <v>0.5410722511836994</v>
+        <v>1.34339428247722</v>
       </c>
       <c r="G24">
-        <v>0.0007743572949129312</v>
+        <v>0.002444576112199059</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8230078033959245</v>
+        <v>0.519485176382517</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.019644957858731</v>
+        <v>0.7421048247539375</v>
       </c>
       <c r="M24">
-        <v>1.264686857905886</v>
+        <v>0.5648586909565836</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.022210549240356</v>
+        <v>3.307345256229752</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.722105322521543</v>
+        <v>1.659483696224186</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1624519078725299</v>
+        <v>0.2516289580379976</v>
       </c>
       <c r="E25">
-        <v>0.3795760116067726</v>
+        <v>0.3270764633293766</v>
       </c>
       <c r="F25">
-        <v>0.5190471559677547</v>
+        <v>1.371941584648098</v>
       </c>
       <c r="G25">
-        <v>0.0007838317412038497</v>
+        <v>0.002450482625279462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7145168807326883</v>
+        <v>0.4863810789566259</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.653795517726223</v>
+        <v>0.6253085642076996</v>
       </c>
       <c r="M25">
-        <v>1.036612589560228</v>
+        <v>0.4940711905268813</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.803341318416329</v>
+        <v>3.336538712667391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.532262534272604</v>
+        <v>2.298622310636063</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2504141269181517</v>
+        <v>0.1551186895281234</v>
       </c>
       <c r="E2">
-        <v>0.3166662929811181</v>
+        <v>0.3437521472411476</v>
       </c>
       <c r="F2">
-        <v>1.396569297610434</v>
+        <v>0.5115086872896129</v>
       </c>
       <c r="G2">
-        <v>0.002455192029909734</v>
+        <v>0.0007910943053066981</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4623035817220682</v>
+        <v>0.6358710767071614</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5388787369807062</v>
+        <v>1.386270679867607</v>
       </c>
       <c r="M2">
-        <v>0.4418470755331612</v>
+        <v>0.8701172120123815</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.367291297544455</v>
+        <v>1.667490565842741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.446322473854764</v>
+        <v>2.013692291633333</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2497068241671556</v>
+        <v>0.1503153832208639</v>
       </c>
       <c r="E3">
-        <v>0.3097559937271157</v>
+        <v>0.3198155879367022</v>
       </c>
       <c r="F3">
-        <v>1.415502031845392</v>
+        <v>0.5111480372797459</v>
       </c>
       <c r="G3">
-        <v>0.002458610405048538</v>
+        <v>0.0007962095259638202</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4461774775234346</v>
+        <v>0.5831940671989173</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4800428348249568</v>
+        <v>1.20563263725731</v>
       </c>
       <c r="M3">
-        <v>0.4063941292999118</v>
+        <v>0.7578493360897909</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.393874959413012</v>
+        <v>1.588970285041341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.393697605099419</v>
+        <v>1.839498419772752</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2493303591073328</v>
+        <v>0.1474449083827949</v>
       </c>
       <c r="E4">
-        <v>0.305585813266795</v>
+        <v>0.3052684671833319</v>
       </c>
       <c r="F4">
-        <v>1.428229946002254</v>
+        <v>0.5130673669653305</v>
       </c>
       <c r="G4">
-        <v>0.002460821781583182</v>
+        <v>0.0007994500498192392</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4363728616422691</v>
+        <v>0.551113783625496</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4437922635034113</v>
+        <v>1.094906232846455</v>
       </c>
       <c r="M4">
-        <v>0.3845983191157671</v>
+        <v>0.6891000810488705</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.413019331086389</v>
+        <v>1.546766553971878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.372289654584421</v>
+        <v>1.768667210313652</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2491915867993697</v>
+        <v>0.1462945564872911</v>
       </c>
       <c r="E5">
-        <v>0.3039049796312696</v>
+        <v>0.2993757247878364</v>
       </c>
       <c r="F5">
-        <v>1.433693633013419</v>
+        <v>0.5143597214021156</v>
       </c>
       <c r="G5">
-        <v>0.002461751306563035</v>
+        <v>0.0008007962796773451</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4324022274982724</v>
+        <v>0.5381014575069401</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4289893019062561</v>
+        <v>1.049812371166468</v>
       </c>
       <c r="M5">
-        <v>0.3757099245626421</v>
+        <v>0.6611176214374268</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.421528929062077</v>
+        <v>1.530985322171176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.368737158894618</v>
+        <v>1.756914065999439</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2491694309709658</v>
+        <v>0.1461047011569576</v>
       </c>
       <c r="E6">
-        <v>0.3036270062030297</v>
+        <v>0.2983993069841517</v>
       </c>
       <c r="F6">
-        <v>1.434617588935566</v>
+        <v>0.5146043392729851</v>
       </c>
       <c r="G6">
-        <v>0.002461907369717932</v>
+        <v>0.0008010213888721332</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4317444200309666</v>
+        <v>0.5359442780278272</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4265294623912723</v>
+        <v>1.042325743413386</v>
       </c>
       <c r="M6">
-        <v>0.3742336404217426</v>
+        <v>0.6564728184168871</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.422984666136671</v>
+        <v>1.528447815775252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.39340873808564</v>
+        <v>1.838542586018519</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2493284281629755</v>
+        <v>0.1474293163460842</v>
       </c>
       <c r="E7">
-        <v>0.3055630695193372</v>
+        <v>0.305188855576354</v>
       </c>
       <c r="F7">
-        <v>1.428302510383581</v>
+        <v>0.5130827662785578</v>
       </c>
       <c r="G7">
-        <v>0.002460834202444519</v>
+        <v>0.0007994681007258384</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4363192111370893</v>
+        <v>0.5509380563820798</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4435927481184763</v>
+        <v>1.09429799142552</v>
       </c>
       <c r="M7">
-        <v>0.3844784724566708</v>
+        <v>0.6887225806948862</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.413131229361653</v>
+        <v>1.546548104684348</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.502601494906457</v>
+        <v>2.20019967415459</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2501583074824367</v>
+        <v>0.1534458919251591</v>
       </c>
       <c r="E8">
-        <v>0.3142686642769803</v>
+        <v>0.335466168725965</v>
       </c>
       <c r="F8">
-        <v>1.402868087715156</v>
+        <v>0.5109226069760666</v>
       </c>
       <c r="G8">
-        <v>0.002456347392940507</v>
+        <v>0.0007928377038126965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4567234655260251</v>
+        <v>0.6176497725138432</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5186185944734518</v>
+        <v>1.323936272207675</v>
       </c>
       <c r="M8">
-        <v>0.4296289082746014</v>
+        <v>0.8313611175989593</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.375870768113742</v>
+        <v>1.63911171411803</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.717818006750178</v>
+        <v>2.917156622163304</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.252240326692494</v>
+        <v>0.1658914964025371</v>
       </c>
       <c r="E9">
-        <v>0.3319079147637751</v>
+        <v>0.3961525027157009</v>
       </c>
       <c r="F9">
-        <v>1.361763694608598</v>
+        <v>0.5250242710293662</v>
       </c>
       <c r="G9">
-        <v>0.002448437265073018</v>
+        <v>0.0007805977883807149</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4974869114472398</v>
+        <v>0.750848982596267</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6647199163314497</v>
+        <v>1.776675839095105</v>
       </c>
       <c r="M9">
-        <v>0.5179326913216045</v>
+        <v>1.113170307758679</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.325262445694193</v>
+        <v>1.8728211718701</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.876562890643584</v>
+        <v>3.451336151958117</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2540419213365368</v>
+        <v>0.1754654721198392</v>
       </c>
       <c r="E10">
-        <v>0.3452020509945726</v>
+        <v>0.4417307633294882</v>
       </c>
       <c r="F10">
-        <v>1.336939125632384</v>
+        <v>0.548583246176463</v>
       </c>
       <c r="G10">
-        <v>0.002443161748828554</v>
+        <v>0.0007720259901916895</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5278731767575948</v>
+        <v>0.8506070591846537</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.771405117264095</v>
+        <v>2.112242262153245</v>
       </c>
       <c r="M10">
-        <v>0.5826491320586058</v>
+        <v>1.322477410796552</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.301870832204855</v>
+        <v>2.083126258569905</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.9489089988827</v>
+        <v>3.696626943380693</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2549194947447404</v>
+        <v>0.1799234928266173</v>
       </c>
       <c r="E11">
-        <v>0.3513202883429045</v>
+        <v>0.4627288263744447</v>
       </c>
       <c r="F11">
-        <v>1.326818668159667</v>
+        <v>0.5626574646432303</v>
       </c>
       <c r="G11">
-        <v>0.00244087698737773</v>
+        <v>0.0007682072812092678</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5417876955578436</v>
+        <v>0.8965129071918909</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8197910338838312</v>
+        <v>2.265900945786115</v>
       </c>
       <c r="M11">
-        <v>0.6120526015048853</v>
+        <v>1.418430560298077</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.294245188324112</v>
+        <v>2.188833853707962</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.976322699006687</v>
+        <v>3.789901434608453</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2552600587349474</v>
+        <v>0.1816272492742712</v>
       </c>
       <c r="E12">
-        <v>0.3536470524305813</v>
+        <v>0.4707225931440107</v>
       </c>
       <c r="F12">
-        <v>1.323155381142712</v>
+        <v>0.5685147591893838</v>
       </c>
       <c r="G12">
-        <v>0.00244002826826281</v>
+        <v>0.0007667718838244481</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5470695522045901</v>
+        <v>0.9139819225960366</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.838091885600079</v>
+        <v>2.3242652211311</v>
       </c>
       <c r="M12">
-        <v>0.6231813263430013</v>
+        <v>1.454893608501251</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.29179283520071</v>
+        <v>2.230457815391929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.970417895751837</v>
+        <v>3.769794843973216</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2551863469771547</v>
+        <v>0.1812596068963472</v>
       </c>
       <c r="E13">
-        <v>0.3531455047451502</v>
+        <v>0.4689990409494413</v>
       </c>
       <c r="F13">
-        <v>1.323936805943589</v>
+        <v>0.5672290583075821</v>
       </c>
       <c r="G13">
-        <v>0.002440210323953682</v>
+        <v>0.0007670805636794236</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5459314507503166</v>
+        <v>0.9102156882414931</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8341514552863885</v>
+        <v>2.311687010579192</v>
       </c>
       <c r="M13">
-        <v>0.6207848190961158</v>
+        <v>1.447034596629109</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.292301605428207</v>
+        <v>2.221419866601593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.951163990678083</v>
+        <v>3.704292555569623</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.254947348439913</v>
+        <v>0.1800633441897617</v>
       </c>
       <c r="E14">
-        <v>0.3515115151748702</v>
+        <v>0.4633856056729897</v>
       </c>
       <c r="F14">
-        <v>1.32651389509563</v>
+        <v>0.563128500401973</v>
       </c>
       <c r="G14">
-        <v>0.002440806833055253</v>
+        <v>0.0007680889820932877</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5422219844917038</v>
+        <v>0.8979483205077656</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8212970988096231</v>
+        <v>2.27069886619762</v>
       </c>
       <c r="M14">
-        <v>0.6129682860891279</v>
+        <v>1.421427708201733</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.294034697641365</v>
+        <v>2.192225405049612</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.939372700019419</v>
+        <v>3.664222905532881</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2548020259436328</v>
+        <v>0.1793326564108781</v>
       </c>
       <c r="E15">
-        <v>0.3505119342086402</v>
+        <v>0.4599528507011215</v>
       </c>
       <c r="F15">
-        <v>1.328114475393811</v>
+        <v>0.5606869131259131</v>
       </c>
       <c r="G15">
-        <v>0.002441174354744979</v>
+        <v>0.0007687080273587767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5399514739754352</v>
+        <v>0.8904456444577136</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8134205633357681</v>
+        <v>2.245616509309485</v>
       </c>
       <c r="M15">
-        <v>0.6081796728720974</v>
+        <v>1.405760048481469</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.295153008014921</v>
+        <v>2.174555364361311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.871837458959249</v>
+        <v>3.435356816703177</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.253985729016577</v>
+        <v>0.1751762662156722</v>
       </c>
       <c r="E16">
-        <v>0.3448036110725852</v>
+        <v>0.4403641628183266</v>
       </c>
       <c r="F16">
-        <v>1.337624157288488</v>
+        <v>0.547734769878268</v>
       </c>
       <c r="G16">
-        <v>0.002443313372602025</v>
+        <v>0.000772277096740656</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5269656359369037</v>
+        <v>0.8476184025457343</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7682399750583215</v>
+        <v>2.102223265286113</v>
       </c>
       <c r="M16">
-        <v>0.5807267713153692</v>
+        <v>1.316223297271776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.302430008460249</v>
+        <v>2.076432645941196</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.830439776238393</v>
+        <v>3.29558165731089</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2534997479122438</v>
+        <v>0.1726533341846164</v>
       </c>
       <c r="E17">
-        <v>0.3413196663223772</v>
+        <v>0.4284177250378605</v>
       </c>
       <c r="F17">
-        <v>1.343758684353048</v>
+        <v>0.5406796530868121</v>
       </c>
       <c r="G17">
-        <v>0.002444655012205561</v>
+        <v>0.0007744866211703338</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5190223972980732</v>
+        <v>0.8214866044396842</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.740485186389094</v>
+        <v>2.014536218561489</v>
       </c>
       <c r="M17">
-        <v>0.563875631444219</v>
+        <v>1.261499189605118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.307667728543748</v>
+        <v>2.018912126923851</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.806641444833417</v>
+        <v>3.215398385068113</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2532256911862873</v>
+        <v>0.1712118291885645</v>
       </c>
       <c r="E18">
-        <v>0.3393224592485211</v>
+        <v>0.4215710473899605</v>
       </c>
       <c r="F18">
-        <v>1.347397419091088</v>
+        <v>0.5369348125897346</v>
       </c>
       <c r="G18">
-        <v>0.002445437526232537</v>
+        <v>0.0007757651320661362</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5144623097827008</v>
+        <v>0.8065050900122799</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7245077026308877</v>
+        <v>1.964193713236909</v>
       </c>
       <c r="M18">
-        <v>0.5541799080796466</v>
+        <v>1.23009142220647</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.310964040439103</v>
+        <v>1.986762924957873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.798585926764588</v>
+        <v>3.188284356319627</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2531338421838711</v>
+        <v>0.1707253888227953</v>
       </c>
       <c r="E19">
-        <v>0.3386473915356731</v>
+        <v>0.4192569816323797</v>
       </c>
       <c r="F19">
-        <v>1.348648363158681</v>
+        <v>0.535719338641691</v>
       </c>
       <c r="G19">
-        <v>0.002445704335980377</v>
+        <v>0.0007761993550297618</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5129198425419759</v>
+        <v>0.8014407020406793</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7190956819001428</v>
+        <v>1.947163607539039</v>
       </c>
       <c r="M19">
-        <v>0.5508965353790245</v>
+        <v>1.219468362960782</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.312128790870275</v>
+        <v>1.976033967206803</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.834845343295399</v>
+        <v>3.310438641090286</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2535509163491412</v>
+        <v>0.1729209034335639</v>
       </c>
       <c r="E20">
-        <v>0.3416898500664303</v>
+        <v>0.429686868490208</v>
       </c>
       <c r="F20">
-        <v>1.343094232255304</v>
+        <v>0.5413979669957101</v>
       </c>
       <c r="G20">
-        <v>0.00244451107118287</v>
+        <v>0.0007742506282059201</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5198670763146822</v>
+        <v>0.8242632590349785</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.743441151650245</v>
+        <v>2.023860830298673</v>
       </c>
       <c r="M20">
-        <v>0.5656698189231264</v>
+        <v>1.267317467453651</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.307080788541811</v>
+        <v>2.024937454518181</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.956818855867311</v>
+        <v>3.72352113412046</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2550173250773042</v>
+        <v>0.1804142851276254</v>
       </c>
       <c r="E21">
-        <v>0.3519911901890751</v>
+        <v>0.4650332249243192</v>
       </c>
       <c r="F21">
-        <v>1.325752347742963</v>
+        <v>0.5643182342380229</v>
       </c>
       <c r="G21">
-        <v>0.002440631177431879</v>
+        <v>0.0007677925035241074</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5433112026915694</v>
+        <v>0.9015491404438762</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8250733347733217</v>
+        <v>2.28273300092718</v>
       </c>
       <c r="M21">
-        <v>0.6152643507927706</v>
+        <v>1.428945425783709</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.293513818548405</v>
+        <v>2.200755970611681</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.036638794213388</v>
+        <v>3.995788351611452</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2560237276156698</v>
+        <v>0.1854030266662789</v>
       </c>
       <c r="E22">
-        <v>0.3587814258094824</v>
+        <v>0.488382689378092</v>
       </c>
       <c r="F22">
-        <v>1.315404372835921</v>
+        <v>0.5823975615421375</v>
       </c>
       <c r="G22">
-        <v>0.002438191407600666</v>
+        <v>0.0007636334180845312</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5587072942765019</v>
+        <v>0.9525634035559847</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8782969565544363</v>
+        <v>2.452970167169013</v>
       </c>
       <c r="M22">
-        <v>0.6476436145211721</v>
+        <v>1.535334255932767</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.287185147475611</v>
+        <v>2.325039523952853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.994028345513129</v>
+        <v>3.850243443154739</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2554822296181527</v>
+        <v>0.1827317833580366</v>
       </c>
       <c r="E23">
-        <v>0.3551521471782735</v>
+        <v>0.4758963813431549</v>
       </c>
       <c r="F23">
-        <v>1.320836893901607</v>
+        <v>0.5724487590205243</v>
       </c>
       <c r="G23">
-        <v>0.002439484804555363</v>
+        <v>0.0007658478859597315</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5504834857521814</v>
+        <v>0.9252865335919296</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.849902484842147</v>
+        <v>2.36200395378296</v>
       </c>
       <c r="M23">
-        <v>0.6303654324034653</v>
+        <v>1.478475763559373</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.290330074307434</v>
+        <v>2.257795528051133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.832853580884603</v>
+        <v>3.303721257002735</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2535277664572675</v>
+        <v>0.1727999075216431</v>
       </c>
       <c r="E24">
-        <v>0.3415224720385623</v>
+        <v>0.4291130221196582</v>
       </c>
       <c r="F24">
-        <v>1.34339428247722</v>
+        <v>0.5410722511837207</v>
       </c>
       <c r="G24">
-        <v>0.002444576112199059</v>
+        <v>0.0007743572949421122</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.519485176382517</v>
+        <v>0.8230078033958819</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7421048247539375</v>
+        <v>2.019644957858873</v>
       </c>
       <c r="M24">
-        <v>0.5648586909565836</v>
+        <v>1.264686857905886</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.307345256229752</v>
+        <v>2.022210549240327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.659483696224186</v>
+        <v>2.722105322521259</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2516289580379976</v>
+        <v>0.1624519078727005</v>
       </c>
       <c r="E25">
-        <v>0.3270764633293766</v>
+        <v>0.3795760116067939</v>
       </c>
       <c r="F25">
-        <v>1.371941584648098</v>
+        <v>0.5190471559677547</v>
       </c>
       <c r="G25">
-        <v>0.002450482625279462</v>
+        <v>0.0007838317412302846</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4863810789566259</v>
+        <v>0.7145168807326172</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6253085642076996</v>
+        <v>1.653795517726081</v>
       </c>
       <c r="M25">
-        <v>0.4940711905268813</v>
+        <v>1.036612589560221</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.336538712667391</v>
+        <v>1.803341318416358</v>
       </c>
     </row>
   </sheetData>
